--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\project dsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,60 +19,161 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>load</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>h1</t>
-  </si>
-  <si>
-    <t>h2</t>
-  </si>
-  <si>
-    <t>h3</t>
-  </si>
-  <si>
-    <t>h5</t>
-  </si>
-  <si>
-    <t>h4</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>rv</t>
-  </si>
-  <si>
-    <t>iv</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+  <si>
+    <t>Substation UNBVN</t>
+  </si>
+  <si>
+    <t>Substation at NIT Kurukshetra</t>
+  </si>
+  <si>
+    <t>Training and Placement Cell</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>K. Chawla Hostel</t>
+  </si>
+  <si>
+    <t>Alaknanda Bhawan</t>
+  </si>
+  <si>
+    <t>Bhagirathi Bhawan</t>
+  </si>
+  <si>
+    <t>Admin Building</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Residential Area-2</t>
+  </si>
+  <si>
+    <t>LHC block</t>
+  </si>
+  <si>
+    <t>MCA Deptt</t>
+  </si>
+  <si>
+    <t>SCOE</t>
+  </si>
+  <si>
+    <t>Applied mechanics block</t>
+  </si>
+  <si>
+    <t>Civil Deptt</t>
+  </si>
+  <si>
+    <t>Electrical Deptt</t>
+  </si>
+  <si>
+    <t>Road lighting</t>
+  </si>
+  <si>
+    <t>CSE Deptt</t>
+  </si>
+  <si>
+    <t>ECE Block</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>realLoad</t>
+  </si>
+  <si>
+    <t>Re_Node_voltages</t>
+  </si>
+  <si>
+    <t>Imz_Node_voltages</t>
+  </si>
+  <si>
+    <t>R_OHM</t>
+  </si>
+  <si>
+    <t>X_OHM</t>
+  </si>
+  <si>
+    <t>Z_OHM</t>
+  </si>
+  <si>
+    <t>reactiveLoad</t>
+  </si>
+  <si>
+    <t>line_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               from_bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          to_bus                                    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,7 +196,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -131,7 +237,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -143,7 +249,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -190,6 +296,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -225,6 +348,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,153 +517,1292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="J2">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="K2">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="L2">
+        <f>POWER((J2*J2+K2*K2),1/2)</f>
+        <v>0.10380814033591008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="J3">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.25109999999999999</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="0">POWER((J3*J3+K3*K3),1/2)</f>
+        <v>0.55326323752803241</v>
+      </c>
+      <c r="M3" s="1">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>60</v>
+      </c>
+      <c r="O3">
+        <v>11.55</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0.41073222420452965</v>
+      </c>
+      <c r="M4">
+        <v>90</v>
+      </c>
+      <c r="N4">
+        <v>40</v>
+      </c>
+      <c r="O4">
+        <v>11.55</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="J5">
+        <v>0.38109999999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.19409999999999999</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0.42768214832980811</v>
+      </c>
+      <c r="M5">
+        <v>120</v>
+      </c>
+      <c r="N5">
+        <v>80</v>
+      </c>
+      <c r="O5">
+        <v>11.55</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="J6">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="K6">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1.0819473184956834</v>
+      </c>
+      <c r="M6">
+        <v>60</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
+      <c r="O6">
+        <v>11.55</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="J7">
+        <v>0.18720000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.61880000000000002</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.6464961562144047</v>
+      </c>
+      <c r="M7">
+        <v>60</v>
+      </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <v>11.55</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8">
+        <v>1.7114</v>
+      </c>
+      <c r="K8">
+        <v>1.2351000000000001</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>2.1105359437830007</v>
+      </c>
+      <c r="M8">
+        <v>200</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <v>11.55</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="J9">
+        <v>1.03</v>
+      </c>
+      <c r="K9">
+        <v>0.74</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L26" si="1">POWER((J9*J9+K9*K9),1/2)</f>
+        <v>1.2682665335015348</v>
+      </c>
+      <c r="M9">
+        <v>200</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="O9">
+        <v>11.55</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10">
+        <v>1.04</v>
+      </c>
+      <c r="K10">
+        <v>0.74</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>1.2764011908487081</v>
+      </c>
+      <c r="M10" s="1">
+        <v>60</v>
+      </c>
+      <c r="N10">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>11.55</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11">
+        <v>0.1966</v>
+      </c>
+      <c r="K11">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0.20706655934747165</v>
+      </c>
+      <c r="M11">
+        <v>60</v>
+      </c>
+      <c r="N11">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>11.55</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12">
+        <v>0.37440000000000001</v>
+      </c>
+      <c r="K12">
+        <v>0.12379999999999999</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0.39433716538008434</v>
+      </c>
+      <c r="M12">
+        <v>45</v>
+      </c>
+      <c r="N12">
+        <v>30</v>
+      </c>
+      <c r="O12">
+        <v>11.55</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="J13">
+        <v>1.468</v>
+      </c>
+      <c r="K13">
+        <v>1.155</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>1.8678996225707634</v>
+      </c>
+      <c r="M13">
+        <v>60</v>
+      </c>
+      <c r="N13">
+        <v>35</v>
+      </c>
+      <c r="O13">
+        <v>11.55</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="J14">
+        <v>0.54159999999999997</v>
+      </c>
+      <c r="K14">
+        <v>0.71289999999999998</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0.8952971406186887</v>
+      </c>
+      <c r="M14">
+        <v>60</v>
+      </c>
+      <c r="N14">
+        <v>35</v>
+      </c>
+      <c r="O14">
+        <v>11.55</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="K15">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0.79117444346995935</v>
+      </c>
+      <c r="M15">
+        <v>120</v>
+      </c>
+      <c r="N15">
+        <v>80</v>
+      </c>
+      <c r="O15">
+        <v>11.55</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16">
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="K16">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0.92411508482439564</v>
+      </c>
+      <c r="M16">
+        <v>60</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>11.55</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="J17">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="K17">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>2.150200455771508</v>
+      </c>
+      <c r="M17">
+        <v>60</v>
+      </c>
+      <c r="N17">
+        <v>20</v>
+      </c>
+      <c r="O17">
+        <v>11.55</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="K18">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>0.93021502890460761</v>
+      </c>
+      <c r="M18">
+        <v>60</v>
+      </c>
+      <c r="N18">
+        <v>20</v>
+      </c>
+      <c r="O18">
+        <v>11.55</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.1565</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>0.22668976597985185</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19">
+        <v>60</v>
+      </c>
+      <c r="O19">
+        <v>11.55</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20">
+        <v>1.5042</v>
+      </c>
+      <c r="K20">
+        <v>1.3553999999999999</v>
+      </c>
+      <c r="L20">
+        <f>POWER((J20*J20+K20*K20),1/2)</f>
+        <v>2.0247782100763527</v>
+      </c>
+      <c r="M20">
+        <v>40</v>
+      </c>
+      <c r="N20">
+        <v>40</v>
+      </c>
+      <c r="O20">
+        <v>11.55</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="K21">
+        <v>0.47839999999999999</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>0.62972756808003882</v>
+      </c>
+      <c r="M21">
+        <v>40</v>
+      </c>
+      <c r="N21">
+        <v>40</v>
+      </c>
+      <c r="O21">
+        <v>11.55</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22">
+        <v>0.70889999999999997</v>
+      </c>
+      <c r="K22">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>1.1751895591775823</v>
+      </c>
+      <c r="M22">
+        <v>90</v>
+      </c>
+      <c r="N22">
+        <v>40</v>
+      </c>
+      <c r="O22">
+        <v>11.55</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="K23">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>0.22781694405816263</v>
+      </c>
+      <c r="M23">
+        <v>60</v>
+      </c>
+      <c r="N23">
+        <v>20</v>
+      </c>
+      <c r="O23">
+        <v>11.55</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="J24">
+        <v>0.28420000000000001</v>
+      </c>
+      <c r="K24">
+        <v>0.1447</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>0.3189164937722726</v>
+      </c>
+      <c r="M24">
+        <v>60</v>
+      </c>
+      <c r="N24">
+        <v>25</v>
+      </c>
+      <c r="O24">
+        <v>11.55</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="J25">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="K25">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>1.4118345122570137</v>
+      </c>
+      <c r="M25">
+        <v>60</v>
+      </c>
+      <c r="N25">
+        <v>25</v>
+      </c>
+      <c r="O25">
+        <v>11.55</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="J26">
+        <v>0.80420000000000003</v>
+      </c>
+      <c r="K26">
+        <v>0.7006</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>1.0665730167222496</v>
+      </c>
+      <c r="M26">
+        <v>60</v>
+      </c>
+      <c r="N26">
+        <v>20</v>
+      </c>
+      <c r="O26">
+        <v>11.55</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="J27">
+        <v>0.50749999999999995</v>
+      </c>
+      <c r="K27">
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="L27">
+        <f>POWER((J27*J27+K27*K27),1/2)</f>
+        <v>0.56954236014540649</v>
+      </c>
+      <c r="M27">
+        <v>120</v>
+      </c>
+      <c r="N27">
+        <v>70</v>
+      </c>
+      <c r="O27">
+        <v>11.55</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="J28">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="K28">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ref="L28:L33" si="2">POWER((J28*J28+K28*K28),1/2)</f>
+        <v>1.3699723938824462</v>
+      </c>
+      <c r="M28">
+        <v>200</v>
+      </c>
+      <c r="N28">
+        <v>600</v>
+      </c>
+      <c r="O28">
+        <v>11.55</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="J29">
+        <v>0.3105</v>
+      </c>
+      <c r="K29">
+        <v>0.3619</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>0.47684574025569315</v>
+      </c>
+      <c r="M29">
+        <v>250</v>
+      </c>
+      <c r="N29">
+        <v>70</v>
+      </c>
+      <c r="O29">
+        <v>11.55</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="J30">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="K30">
+        <v>0.5302</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>0.63039118014134687</v>
+      </c>
+      <c r="M30">
+        <v>210</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+      <c r="O30">
+        <v>11.55</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>0.4</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="J31">
+        <v>0.45119999999999999</v>
+      </c>
+      <c r="K31">
+        <v>0.30830000000000002</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>0.54647079519403419</v>
+      </c>
+      <c r="M31">
+        <v>90</v>
+      </c>
+      <c r="N31">
+        <v>40</v>
+      </c>
+      <c r="O31">
+        <v>11.55</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="J32">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K32">
+        <v>0.70909999999999995</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>1.144214494751749</v>
+      </c>
+      <c r="M32">
+        <v>90</v>
+      </c>
+      <c r="N32">
+        <v>50</v>
+      </c>
+      <c r="O32">
+        <v>11.55</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="J33">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="K33">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>1.1376982069072623</v>
+      </c>
+      <c r="M33">
+        <v>420</v>
+      </c>
+      <c r="N33">
+        <v>200</v>
+      </c>
+      <c r="O33">
+        <v>11.55</v>
+      </c>
+      <c r="P33">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="66">
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>